--- a/inst/exdata/sapiens.xlsx
+++ b/inst/exdata/sapiens.xlsx
@@ -446,9 +446,6 @@
     <t>E1</t>
   </si>
   <si>
-    <t>enfermo</t>
-  </si>
-  <si>
     <t>antillano</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
   </si>
   <si>
     <t>rain</t>
-  </si>
-  <si>
-    <t>sano</t>
   </si>
   <si>
     <t>17.22</t>
@@ -569,22 +563,28 @@
     <t>FreshRootKg</t>
   </si>
   <si>
-    <t>DryrRootKg</t>
-  </si>
-  <si>
-    <t>FreshAirKg</t>
-  </si>
-  <si>
-    <t>DryAirKg</t>
-  </si>
-  <si>
-    <t>Hd_airKg</t>
-  </si>
-  <si>
     <t>LengthRootKm</t>
   </si>
   <si>
-    <t>Demage</t>
+    <t>inoculado</t>
+  </si>
+  <si>
+    <t>noinoculado</t>
+  </si>
+  <si>
+    <t>DryRootKg</t>
+  </si>
+  <si>
+    <t>DryFolKg</t>
+  </si>
+  <si>
+    <t>FreshFolKg</t>
+  </si>
+  <si>
+    <t>Hd_FolKg</t>
+  </si>
+  <si>
+    <t>Damage</t>
   </si>
 </sst>
 </file>
@@ -884,6 +884,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -917,6 +1013,102 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -1221,31 +1413,31 @@
         <v>32</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1329,7 +1521,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="24">
         <v>34</v>
@@ -1437,7 +1629,7 @@
         <v>16.908999999999999</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="22">
         <v>60</v>
@@ -1889,7 +2081,7 @@
         <v>100</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="24">
         <v>23.222999999999999</v>
@@ -2102,7 +2294,7 @@
         <v>17.684999999999999</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F26" s="22">
         <v>55</v>
@@ -2134,7 +2326,7 @@
         <v>100</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E27" s="24">
         <v>22.585999999999999</v>
@@ -2172,7 +2364,7 @@
         <v>18.042999999999999</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" s="22">
         <v>65</v>
@@ -16086,7 +16278,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
         <v>65.5</v>
@@ -16143,7 +16335,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>61.3</v>
@@ -16257,7 +16449,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4">
         <v>57.1</v>
@@ -16314,7 +16506,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4">
         <v>56</v>
@@ -16371,7 +16563,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4">
         <v>58</v>
@@ -16428,7 +16620,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4">
         <v>52.9</v>
@@ -16485,7 +16677,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4">
         <v>56.4</v>
@@ -16599,7 +16791,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4">
         <v>60.7</v>
@@ -16656,7 +16848,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4">
         <v>64.900000000000006</v>
@@ -16827,7 +17019,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4">
         <v>64.2</v>
@@ -16998,7 +17190,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4">
         <v>53.3</v>
@@ -17055,7 +17247,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="4">
         <v>62.8</v>
@@ -17169,7 +17361,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="4">
         <v>59.5</v>
@@ -17226,7 +17418,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="4">
         <v>56.4</v>
@@ -17283,7 +17475,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="4">
         <v>61.8</v>
@@ -17397,7 +17589,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4">
         <v>55.6</v>
@@ -17568,7 +17760,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4">
         <v>56</v>
@@ -17682,7 +17874,7 @@
         <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="4">
         <v>52.1</v>
@@ -17739,7 +17931,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="4">
         <v>63.9</v>
@@ -17853,7 +18045,7 @@
         <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44" s="4">
         <v>64.2</v>
@@ -18024,7 +18216,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="4">
         <v>64.2</v>
@@ -18081,7 +18273,7 @@
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D48" s="4">
         <v>62.1</v>
@@ -18138,7 +18330,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D49" s="4">
         <v>62.7</v>
@@ -18195,7 +18387,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4">
         <v>55.2</v>
@@ -18309,7 +18501,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4">
         <v>43.9</v>
@@ -18366,7 +18558,7 @@
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D53" s="4">
         <v>60.8</v>
@@ -18423,7 +18615,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54" s="4">
         <v>58.6</v>
@@ -18480,7 +18672,7 @@
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="4">
         <v>54.4</v>
@@ -18537,7 +18729,7 @@
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" s="4">
         <v>64.400000000000006</v>
@@ -18594,7 +18786,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" s="4">
         <v>56.9</v>
@@ -18708,7 +18900,7 @@
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59" s="4">
         <v>51.1</v>
@@ -18822,7 +19014,7 @@
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4">
         <v>64.5</v>
@@ -18936,7 +19128,7 @@
         <v>18</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4">
         <v>59.5</v>
@@ -18993,7 +19185,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="4">
         <v>57.1</v>
@@ -19107,7 +19299,7 @@
         <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="4">
         <v>63.9</v>
@@ -19164,7 +19356,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D67" s="4">
         <v>57.7</v>
@@ -19221,7 +19413,7 @@
         <v>23</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4">
         <v>60.7</v>
@@ -19392,7 +19584,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D71" s="4">
         <v>62</v>
@@ -19449,7 +19641,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D72" s="4">
         <v>50</v>
@@ -19506,7 +19698,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D73" s="4">
         <v>59.3</v>
@@ -19563,7 +19755,7 @@
         <v>18</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D74" s="4">
         <v>54</v>
@@ -19848,7 +20040,7 @@
         <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D79" s="4">
         <v>54.4</v>
@@ -19905,7 +20097,7 @@
         <v>18</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D80" s="4">
         <v>51.6</v>
@@ -19962,7 +20154,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D81" s="4">
         <v>56.3</v>
@@ -20019,7 +20211,7 @@
         <v>18</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D82" s="4">
         <v>60</v>
@@ -20190,7 +20382,7 @@
         <v>18</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D85" s="4">
         <v>58.1</v>
@@ -20247,7 +20439,7 @@
         <v>18</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D86" s="4">
         <v>53.3</v>
@@ -20304,7 +20496,7 @@
         <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D87" s="4">
         <v>60.8</v>
@@ -20361,7 +20553,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D88" s="4">
         <v>56.9</v>
@@ -20418,7 +20610,7 @@
         <v>18</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D89" s="4">
         <v>59.5</v>
@@ -20475,7 +20667,7 @@
         <v>18</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="4">
         <v>62.4</v>
@@ -20589,7 +20781,7 @@
         <v>18</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D92" s="4">
         <v>52.3</v>
@@ -20646,7 +20838,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D93" s="4">
         <v>59.8</v>
@@ -20760,7 +20952,7 @@
         <v>23</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D95" s="4">
         <v>61</v>
@@ -20817,7 +21009,7 @@
         <v>18</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D96" s="4">
         <v>61.1</v>
@@ -20874,7 +21066,7 @@
         <v>18</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D97" s="4">
         <v>51.7</v>
@@ -20931,7 +21123,7 @@
         <v>23</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D98" s="4">
         <v>58.9</v>
@@ -21216,7 +21408,7 @@
         <v>23</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D103" s="4">
         <v>59.6</v>
@@ -21273,7 +21465,7 @@
         <v>23</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D104" s="4">
         <v>54.8</v>
@@ -21387,7 +21579,7 @@
         <v>18</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D106" s="4">
         <v>63.1</v>
@@ -21615,7 +21807,7 @@
         <v>23</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D110" s="4">
         <v>58.2</v>
@@ -21672,7 +21864,7 @@
         <v>23</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D111" s="4">
         <v>58.7</v>
@@ -21786,7 +21978,7 @@
         <v>18</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D113" s="4">
         <v>52.2</v>
@@ -21843,7 +22035,7 @@
         <v>18</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D114" s="4">
         <v>49.8</v>
@@ -21900,7 +22092,7 @@
         <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D115" s="4">
         <v>51.4</v>
@@ -21957,7 +22149,7 @@
         <v>23</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D116" s="4">
         <v>54</v>
@@ -22185,7 +22377,7 @@
         <v>23</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D120" s="4">
         <v>56.5</v>
@@ -22242,7 +22434,7 @@
         <v>18</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D121" s="4">
         <v>54.8</v>
@@ -22299,7 +22491,7 @@
         <v>23</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D122" s="4">
         <v>57.8</v>
@@ -22356,7 +22548,7 @@
         <v>18</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D123" s="4">
         <v>62.5</v>
@@ -22413,7 +22605,7 @@
         <v>18</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D124" s="4">
         <v>47</v>
@@ -22470,7 +22662,7 @@
         <v>18</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D125" s="4">
         <v>53.8</v>
@@ -22527,7 +22719,7 @@
         <v>23</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D126" s="4">
         <v>47.2</v>
@@ -22641,7 +22833,7 @@
         <v>18</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D128" s="4">
         <v>54.7</v>
@@ -22698,7 +22890,7 @@
         <v>18</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D129" s="4">
         <v>53.3</v>
@@ -22755,7 +22947,7 @@
         <v>23</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D130" s="4">
         <v>57</v>
@@ -22926,7 +23118,7 @@
         <v>23</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D133" s="4">
         <v>58.7</v>
@@ -22983,7 +23175,7 @@
         <v>18</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D134" s="4">
         <v>56.3</v>
@@ -23040,7 +23232,7 @@
         <v>23</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D135" s="4">
         <v>54.8</v>
@@ -23097,7 +23289,7 @@
         <v>18</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D136" s="4">
         <v>57.8</v>
@@ -23154,7 +23346,7 @@
         <v>23</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D137" s="4">
         <v>57.7</v>
@@ -23211,7 +23403,7 @@
         <v>23</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D138" s="4">
         <v>49.7</v>
@@ -23325,7 +23517,7 @@
         <v>18</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D140" s="4">
         <v>60.3</v>
@@ -23382,7 +23574,7 @@
         <v>23</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D141" s="4">
         <v>62.4</v>
@@ -23496,7 +23688,7 @@
         <v>23</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D143" s="4">
         <v>53.9</v>
@@ -23610,7 +23802,7 @@
         <v>18</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D145" s="4">
         <v>57.5</v>
@@ -23724,7 +23916,7 @@
         <v>18</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D147" s="4">
         <v>58.3</v>
@@ -23781,7 +23973,7 @@
         <v>18</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D148" s="4">
         <v>54.3</v>
@@ -23838,7 +24030,7 @@
         <v>23</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D149" s="4">
         <v>62.3</v>
@@ -23952,7 +24144,7 @@
         <v>18</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D151" s="4">
         <v>54.2</v>
@@ -24017,7 +24209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24027,31 +24219,31 @@
         <v>31</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>77</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>80</v>
@@ -24062,10 +24254,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="14">
         <v>2.3199999999999998E-2</v>
@@ -24089,7 +24281,7 @@
         <v>0.91510999999999998</v>
       </c>
       <c r="K2" s="14">
-        <v>0.55000000000000004</v>
+        <v>0.91510999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24097,10 +24289,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="14">
         <v>2.2800000000000001E-2</v>
@@ -24132,10 +24324,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="14">
         <v>1.5800000000000002E-2</v>
@@ -24167,10 +24359,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="14">
         <v>1.6E-2</v>
@@ -24202,10 +24394,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="14">
         <v>3.0599999999999999E-2</v>
@@ -24237,10 +24429,10 @@
         <v>33</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="14">
         <v>2.5000000000000001E-2</v>
@@ -24272,10 +24464,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="14">
         <v>1.9800000000000002E-2</v>
@@ -24307,10 +24499,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="14">
         <v>2.18E-2</v>
@@ -24342,10 +24534,10 @@
         <v>33</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="14">
         <v>1.8800000000000001E-2</v>
@@ -24377,10 +24569,10 @@
         <v>33</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14">
         <v>1.78E-2</v>
@@ -24412,10 +24604,10 @@
         <v>33</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="14">
         <v>1.4500000000000001E-2</v>
@@ -24447,10 +24639,10 @@
         <v>33</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="14">
         <v>1.8599999999999998E-2</v>
@@ -24482,10 +24674,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="14">
         <v>2.3800000000000002E-2</v>
@@ -24517,10 +24709,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14">
         <v>1.9300000000000001E-2</v>
@@ -24552,10 +24744,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="14">
         <v>1.8800000000000001E-2</v>
@@ -24587,10 +24779,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="14">
         <v>1.8100000000000002E-2</v>
@@ -24622,10 +24814,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="14">
         <v>1.7299999999999999E-2</v>
@@ -24657,10 +24849,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="14">
         <v>2.0799999999999999E-2</v>
@@ -24692,10 +24884,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="14">
         <v>2.93E-2</v>
@@ -24727,10 +24919,10 @@
         <v>33</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="14">
         <v>3.5400000000000001E-2</v>
@@ -24762,10 +24954,10 @@
         <v>33</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="14">
         <v>3.5099999999999999E-2</v>
@@ -24797,10 +24989,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="14">
         <v>3.15E-2</v>
@@ -24832,10 +25024,10 @@
         <v>33</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="14">
         <v>3.0099999999999998E-2</v>
@@ -24867,10 +25059,10 @@
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="14">
         <v>3.3000000000000002E-2</v>
@@ -24902,10 +25094,10 @@
         <v>33</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="14">
         <v>4.0800000000000003E-2</v>
@@ -24937,10 +25129,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="14">
         <v>3.1E-2</v>
@@ -24972,10 +25164,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="14">
         <v>2.8799999999999999E-2</v>
@@ -25007,10 +25199,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="14">
         <v>2.24E-2</v>
@@ -25042,10 +25234,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="14">
         <v>2.23E-2</v>
@@ -25077,10 +25269,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="14">
         <v>2.4199999999999999E-2</v>
@@ -25112,10 +25304,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="14">
         <v>2.58E-2</v>
@@ -25147,10 +25339,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="14">
         <v>2.18E-2</v>
@@ -25182,10 +25374,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="14">
         <v>2.46E-2</v>
@@ -25217,10 +25409,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="14">
         <v>1.4800000000000001E-2</v>
@@ -25252,10 +25444,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="14">
         <v>2.5100000000000001E-2</v>
@@ -25287,10 +25479,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="14">
         <v>1.7999999999999999E-2</v>
@@ -25322,10 +25514,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="14">
         <v>2.1999999999999999E-2</v>
@@ -25357,10 +25549,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="14">
         <v>2.1000000000000001E-2</v>
@@ -25392,10 +25584,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="14">
         <v>2.6800000000000001E-2</v>
@@ -25427,10 +25619,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="14">
         <v>1.8100000000000002E-2</v>
@@ -25462,10 +25654,10 @@
         <v>33</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="14">
         <v>2.6499999999999999E-2</v>
@@ -25497,10 +25689,10 @@
         <v>33</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="14">
         <v>1.9800000000000002E-2</v>
@@ -25532,10 +25724,10 @@
         <v>33</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="14">
         <v>2.75E-2</v>
@@ -25567,10 +25759,10 @@
         <v>33</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" s="14">
         <v>0.02</v>
@@ -25602,10 +25794,10 @@
         <v>33</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="14">
         <v>1.9900000000000001E-2</v>
@@ -25637,10 +25829,10 @@
         <v>33</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" s="14">
         <v>2.4299999999999999E-2</v>
@@ -25672,10 +25864,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="14">
         <v>2.3800000000000002E-2</v>
@@ -25707,10 +25899,10 @@
         <v>33</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="14">
         <v>3.7199999999999997E-2</v>
@@ -25739,13 +25931,13 @@
     </row>
     <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D50" s="14">
         <v>2.86E-2</v>
@@ -25774,13 +25966,13 @@
     </row>
     <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D51" s="14">
         <v>2.3099999999999999E-2</v>
@@ -25809,13 +26001,13 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D52" s="14">
         <v>2.2599999999999999E-2</v>
@@ -25844,13 +26036,13 @@
     </row>
     <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D53" s="14">
         <v>2.1299999999999999E-2</v>
@@ -25879,13 +26071,13 @@
     </row>
     <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D54" s="14">
         <v>2.2200000000000001E-2</v>
@@ -25914,13 +26106,13 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D55" s="14">
         <v>2.87E-2</v>
@@ -25949,13 +26141,13 @@
     </row>
     <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="14">
         <v>1.6500000000000001E-2</v>
@@ -25984,13 +26176,13 @@
     </row>
     <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="14">
         <v>2.6800000000000001E-2</v>
@@ -26019,13 +26211,13 @@
     </row>
     <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="14">
         <v>1.7500000000000002E-2</v>
@@ -26054,13 +26246,13 @@
     </row>
     <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="14">
         <v>1.66E-2</v>
@@ -26089,13 +26281,13 @@
     </row>
     <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="14">
         <v>2.0799999999999999E-2</v>
@@ -26124,13 +26316,13 @@
     </row>
     <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="14">
         <v>2.1600000000000001E-2</v>
@@ -26159,13 +26351,13 @@
     </row>
     <row r="62" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D62" s="14">
         <v>1.66E-2</v>
@@ -26194,13 +26386,13 @@
     </row>
     <row r="63" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D63" s="14">
         <v>1.9900000000000001E-2</v>
@@ -26229,13 +26421,13 @@
     </row>
     <row r="64" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" s="14">
         <v>1.6500000000000001E-2</v>
@@ -26264,13 +26456,13 @@
     </row>
     <row r="65" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="14">
         <v>2.2800000000000001E-2</v>
@@ -26299,13 +26491,13 @@
     </row>
     <row r="66" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="14">
         <v>2.0799999999999999E-2</v>
@@ -26334,13 +26526,13 @@
     </row>
     <row r="67" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="14">
         <v>2.0899999999999998E-2</v>
@@ -26369,13 +26561,13 @@
     </row>
     <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D68" s="14">
         <v>3.8800000000000001E-2</v>
@@ -26404,13 +26596,13 @@
     </row>
     <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D69" s="14">
         <v>2.86E-2</v>
@@ -26439,13 +26631,13 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D70" s="14">
         <v>2.2200000000000001E-2</v>
@@ -26474,13 +26666,13 @@
     </row>
     <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D71" s="14">
         <v>2.76E-2</v>
@@ -26509,13 +26701,13 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72" s="14">
         <v>3.0499999999999999E-2</v>
@@ -26544,13 +26736,13 @@
     </row>
     <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D73" s="14">
         <v>2.64E-2</v>
@@ -26579,13 +26771,13 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D74" s="14">
         <v>3.2800000000000003E-2</v>
@@ -26614,13 +26806,13 @@
     </row>
     <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D75" s="14">
         <v>4.5900000000000003E-2</v>
@@ -26649,13 +26841,13 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="14">
         <v>3.9300000000000002E-2</v>
@@ -26684,13 +26876,13 @@
     </row>
     <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="14">
         <v>5.9499999999999997E-2</v>
@@ -26719,13 +26911,13 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="14">
         <v>3.1E-2</v>
@@ -26754,13 +26946,13 @@
     </row>
     <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D79" s="14">
         <v>2.76E-2</v>
@@ -26789,13 +26981,13 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="14">
         <v>3.0300000000000001E-2</v>
@@ -26824,13 +27016,13 @@
     </row>
     <row r="81" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" s="14">
         <v>1.77E-2</v>
@@ -26859,13 +27051,13 @@
     </row>
     <row r="82" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" s="14">
         <v>2.1499999999999998E-2</v>
@@ -26894,13 +27086,13 @@
     </row>
     <row r="83" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" s="14">
         <v>2.3300000000000001E-2</v>
@@ -26929,13 +27121,13 @@
     </row>
     <row r="84" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" s="14">
         <v>2.2800000000000001E-2</v>
@@ -26964,13 +27156,13 @@
     </row>
     <row r="85" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" s="14">
         <v>2.2800000000000001E-2</v>
@@ -26999,13 +27191,13 @@
     </row>
     <row r="86" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D86" s="14">
         <v>3.3300000000000003E-2</v>
@@ -27034,13 +27226,13 @@
     </row>
     <row r="87" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D87" s="14">
         <v>2.3800000000000002E-2</v>
@@ -27069,13 +27261,13 @@
     </row>
     <row r="88" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" s="14">
         <v>2.1999999999999999E-2</v>
@@ -27104,13 +27296,13 @@
     </row>
     <row r="89" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D89" s="14">
         <v>2.12E-2</v>
@@ -27139,13 +27331,13 @@
     </row>
     <row r="90" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D90" s="14">
         <v>3.0700000000000002E-2</v>
@@ -27174,13 +27366,13 @@
     </row>
     <row r="91" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D91" s="14">
         <v>3.27E-2</v>
@@ -27209,13 +27401,13 @@
     </row>
     <row r="92" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D92" s="14">
         <v>3.04E-2</v>
@@ -27244,13 +27436,13 @@
     </row>
     <row r="93" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D93" s="14">
         <v>3.4200000000000001E-2</v>
@@ -27279,13 +27471,13 @@
     </row>
     <row r="94" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D94" s="14">
         <v>4.7E-2</v>
@@ -27314,13 +27506,13 @@
     </row>
     <row r="95" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D95" s="14">
         <v>2.76E-2</v>
@@ -27349,13 +27541,13 @@
     </row>
     <row r="96" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D96" s="14">
         <v>3.8399999999999997E-2</v>
@@ -27384,13 +27576,13 @@
     </row>
     <row r="97" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D97" s="14">
         <v>2.7799999999999998E-2</v>
@@ -27419,13 +27611,13 @@
     </row>
     <row r="98" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B98" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D98" s="14">
         <v>2.35E-2</v>
@@ -27454,13 +27646,13 @@
     </row>
     <row r="99" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B99" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D99" s="14">
         <v>1.7299999999999999E-2</v>
@@ -27489,13 +27681,13 @@
     </row>
     <row r="100" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B100" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D100" s="14">
         <v>3.15E-2</v>
@@ -27524,13 +27716,13 @@
     </row>
     <row r="101" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B101" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D101" s="14">
         <v>2.4199999999999999E-2</v>
@@ -27559,13 +27751,13 @@
     </row>
     <row r="102" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B102" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D102" s="14">
         <v>3.9399999999999998E-2</v>
@@ -27594,13 +27786,13 @@
     </row>
     <row r="103" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B103" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D103" s="14">
         <v>3.5799999999999998E-2</v>
@@ -27629,13 +27821,13 @@
     </row>
     <row r="104" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" s="14">
         <v>1.6899999999999998E-2</v>
@@ -27664,13 +27856,13 @@
     </row>
     <row r="105" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D105" s="14">
         <v>2.01E-2</v>
@@ -27699,13 +27891,13 @@
     </row>
     <row r="106" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D106" s="14">
         <v>2.58E-2</v>
@@ -27734,13 +27926,13 @@
     </row>
     <row r="107" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D107" s="14">
         <v>2.01E-2</v>
@@ -27769,13 +27961,13 @@
     </row>
     <row r="108" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D108" s="14">
         <v>2.6800000000000001E-2</v>
@@ -27804,13 +27996,13 @@
     </row>
     <row r="109" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D109" s="14">
         <v>3.1899999999999998E-2</v>
@@ -27839,13 +28031,13 @@
     </row>
     <row r="110" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D110" s="14">
         <v>5.5300000000000002E-2</v>
@@ -27874,13 +28066,13 @@
     </row>
     <row r="111" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D111" s="14">
         <v>4.3499999999999997E-2</v>
@@ -27909,13 +28101,13 @@
     </row>
     <row r="112" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D112" s="14">
         <v>2.7699999999999999E-2</v>
@@ -27944,13 +28136,13 @@
     </row>
     <row r="113" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D113" s="14">
         <v>3.3799999999999997E-2</v>
@@ -27979,13 +28171,13 @@
     </row>
     <row r="114" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D114" s="14">
         <v>3.15E-2</v>
@@ -28014,13 +28206,13 @@
     </row>
     <row r="115" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D115" s="14">
         <v>3.0800000000000001E-2</v>
@@ -28049,13 +28241,13 @@
     </row>
     <row r="116" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D116" s="14">
         <v>4.53E-2</v>
@@ -28084,13 +28276,13 @@
     </row>
     <row r="117" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D117" s="14">
         <v>2.9600000000000001E-2</v>
@@ -28119,13 +28311,13 @@
     </row>
     <row r="118" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D118" s="14">
         <v>2.1299999999999999E-2</v>
@@ -28154,13 +28346,13 @@
     </row>
     <row r="119" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D119" s="14">
         <v>3.8800000000000001E-2</v>
@@ -28189,13 +28381,13 @@
     </row>
     <row r="120" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D120" s="14">
         <v>3.8399999999999997E-2</v>
@@ -28224,13 +28416,13 @@
     </row>
     <row r="121" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D121" s="14">
         <v>2.9899999999999999E-2</v>
@@ -28259,13 +28451,13 @@
     </row>
     <row r="122" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D122" s="14">
         <v>2.63E-2</v>
@@ -28294,13 +28486,13 @@
     </row>
     <row r="123" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D123" s="14">
         <v>2.7400000000000001E-2</v>
@@ -28329,13 +28521,13 @@
     </row>
     <row r="124" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="14">
         <v>4.8300000000000003E-2</v>
@@ -28364,13 +28556,13 @@
     </row>
     <row r="125" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="14">
         <v>2.98E-2</v>
@@ -28399,13 +28591,13 @@
     </row>
     <row r="126" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126" s="14">
         <v>5.0999999999999997E-2</v>
@@ -28434,13 +28626,13 @@
     </row>
     <row r="127" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D127" s="14">
         <v>2.6499999999999999E-2</v>
@@ -28469,13 +28661,13 @@
     </row>
     <row r="128" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D128" s="14">
         <v>2.6100000000000002E-2</v>
@@ -28504,13 +28696,13 @@
     </row>
     <row r="129" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D129" s="14">
         <v>2.58E-2</v>
@@ -28539,13 +28731,13 @@
     </row>
     <row r="130" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D130" s="14">
         <v>2.5600000000000001E-2</v>
@@ -28574,13 +28766,13 @@
     </row>
     <row r="131" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D131" s="14">
         <v>2.7099999999999999E-2</v>
@@ -28609,13 +28801,13 @@
     </row>
     <row r="132" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D132" s="14">
         <v>2.86E-2</v>
@@ -28644,13 +28836,13 @@
     </row>
     <row r="133" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D133" s="14">
         <v>2.4799999999999999E-2</v>
@@ -28679,13 +28871,13 @@
     </row>
     <row r="134" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D134" s="14">
         <v>2.8000000000000001E-2</v>
@@ -28714,13 +28906,13 @@
     </row>
     <row r="135" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D135" s="14">
         <v>5.5100000000000003E-2</v>
@@ -28749,13 +28941,13 @@
     </row>
     <row r="136" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D136" s="14">
         <v>4.0500000000000001E-2</v>
@@ -28784,13 +28976,13 @@
     </row>
     <row r="137" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D137" s="14">
         <v>3.2199999999999999E-2</v>
@@ -28819,13 +29011,13 @@
     </row>
     <row r="138" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D138" s="14">
         <v>3.8199999999999998E-2</v>
@@ -28854,13 +29046,13 @@
     </row>
     <row r="139" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D139" s="14">
         <v>3.4200000000000001E-2</v>
@@ -28889,13 +29081,13 @@
     </row>
     <row r="140" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D140" s="14">
         <v>3.2000000000000001E-2</v>
@@ -28924,13 +29116,13 @@
     </row>
     <row r="141" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D141" s="14">
         <v>2.69E-2</v>
@@ -28959,13 +29151,13 @@
     </row>
     <row r="142" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D142" s="14">
         <v>3.1899999999999998E-2</v>
@@ -28994,13 +29186,13 @@
     </row>
     <row r="143" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D143" s="14">
         <v>3.4099999999999998E-2</v>
@@ -29029,13 +29221,13 @@
     </row>
     <row r="144" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D144" s="14">
         <v>3.4299999999999997E-2</v>
@@ -29064,13 +29256,13 @@
     </row>
     <row r="145" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D145" s="14">
         <v>2.8500000000000001E-2</v>
@@ -29099,13 +29291,13 @@
     </row>
     <row r="146" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B146" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D146" s="14">
         <v>1.66E-2</v>
@@ -29134,13 +29326,13 @@
     </row>
     <row r="147" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B147" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D147" s="14">
         <v>1.4E-2</v>
@@ -29169,13 +29361,13 @@
     </row>
     <row r="148" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B148" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D148" s="14">
         <v>1.41E-2</v>
@@ -29204,13 +29396,13 @@
     </row>
     <row r="149" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B149" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D149" s="14">
         <v>1.5100000000000001E-2</v>
@@ -29239,13 +29431,13 @@
     </row>
     <row r="150" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B150" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D150" s="14">
         <v>2.12E-2</v>
@@ -29274,13 +29466,13 @@
     </row>
     <row r="151" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B151" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D151" s="14">
         <v>2.1600000000000001E-2</v>
@@ -29309,13 +29501,13 @@
     </row>
     <row r="152" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D152" s="14">
         <v>4.0599999999999997E-2</v>
@@ -29344,13 +29536,13 @@
     </row>
     <row r="153" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D153" s="14">
         <v>2.6100000000000002E-2</v>
@@ -29379,13 +29571,13 @@
     </row>
     <row r="154" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D154" s="14">
         <v>3.2399999999999998E-2</v>
@@ -29414,13 +29606,13 @@
     </row>
     <row r="155" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D155" s="14">
         <v>2.0799999999999999E-2</v>
@@ -29449,13 +29641,13 @@
     </row>
     <row r="156" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D156" s="14">
         <v>3.4099999999999998E-2</v>
@@ -29484,13 +29676,13 @@
     </row>
     <row r="157" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D157" s="14">
         <v>3.5999999999999997E-2</v>
@@ -29519,13 +29711,13 @@
     </row>
     <row r="158" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D158" s="14">
         <v>3.0700000000000002E-2</v>
@@ -29554,13 +29746,13 @@
     </row>
     <row r="159" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D159" s="14">
         <v>4.1300000000000003E-2</v>
@@ -29589,13 +29781,13 @@
     </row>
     <row r="160" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D160" s="14">
         <v>2.1100000000000001E-2</v>
@@ -29624,13 +29816,13 @@
     </row>
     <row r="161" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D161" s="14">
         <v>6.08E-2</v>
@@ -29659,13 +29851,13 @@
     </row>
     <row r="162" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D162" s="14">
         <v>4.4499999999999998E-2</v>
@@ -29694,13 +29886,13 @@
     </row>
     <row r="163" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D163" s="14">
         <v>6.3500000000000001E-2</v>
@@ -29729,13 +29921,13 @@
     </row>
     <row r="164" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D164" s="14">
         <v>3.2599999999999997E-2</v>
@@ -29764,13 +29956,13 @@
     </row>
     <row r="165" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D165" s="14">
         <v>4.9000000000000002E-2</v>
@@ -29799,13 +29991,13 @@
     </row>
     <row r="166" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D166" s="14">
         <v>4.65E-2</v>
@@ -29834,13 +30026,13 @@
     </row>
     <row r="167" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D167" s="14">
         <v>3.2599999999999997E-2</v>
@@ -29869,13 +30061,13 @@
     </row>
     <row r="168" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D168" s="14">
         <v>2.8400000000000002E-2</v>
@@ -29904,13 +30096,13 @@
     </row>
     <row r="169" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D169" s="14">
         <v>4.6800000000000001E-2</v>
@@ -29939,13 +30131,13 @@
     </row>
     <row r="170" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D170" s="14">
         <v>6.8000000000000005E-2</v>
@@ -29974,13 +30166,13 @@
     </row>
     <row r="171" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="14">
         <v>7.8700000000000006E-2</v>
@@ -30009,13 +30201,13 @@
     </row>
     <row r="172" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="14">
         <v>5.4600000000000003E-2</v>
@@ -30044,13 +30236,13 @@
     </row>
     <row r="173" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D173" s="14">
         <v>5.6300000000000003E-2</v>
@@ -30079,13 +30271,13 @@
     </row>
     <row r="174" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D174" s="14">
         <v>7.5300000000000006E-2</v>
@@ -30114,13 +30306,13 @@
     </row>
     <row r="175" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D175" s="14">
         <v>8.1100000000000005E-2</v>
@@ -30149,13 +30341,13 @@
     </row>
     <row r="176" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D176" s="14">
         <v>4.58E-2</v>
@@ -30184,13 +30376,13 @@
     </row>
     <row r="177" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D177" s="14">
         <v>3.2800000000000003E-2</v>
@@ -30219,13 +30411,13 @@
     </row>
     <row r="178" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D178" s="14">
         <v>2.8799999999999999E-2</v>
@@ -30254,13 +30446,13 @@
     </row>
     <row r="179" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D179" s="14">
         <v>3.8199999999999998E-2</v>
@@ -30289,13 +30481,13 @@
     </row>
     <row r="180" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D180" s="14">
         <v>4.0800000000000003E-2</v>
@@ -30324,13 +30516,13 @@
     </row>
     <row r="181" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D181" s="14">
         <v>4.2999999999999997E-2</v>
@@ -30359,13 +30551,13 @@
     </row>
     <row r="182" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D182" s="14">
         <v>7.7799999999999994E-2</v>
@@ -30394,13 +30586,13 @@
     </row>
     <row r="183" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D183" s="14">
         <v>7.5200000000000003E-2</v>
@@ -30429,13 +30621,13 @@
     </row>
     <row r="184" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D184" s="14">
         <v>5.7299999999999997E-2</v>
@@ -30464,13 +30656,13 @@
     </row>
     <row r="185" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D185" s="14">
         <v>6.08E-2</v>
@@ -30499,13 +30691,13 @@
     </row>
     <row r="186" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D186" s="14">
         <v>5.0200000000000002E-2</v>
@@ -30534,13 +30726,13 @@
     </row>
     <row r="187" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D187" s="14">
         <v>7.1800000000000003E-2</v>
@@ -30569,13 +30761,13 @@
     </row>
     <row r="188" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D188" s="14">
         <v>3.6600000000000001E-2</v>
@@ -30604,13 +30796,13 @@
     </row>
     <row r="189" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D189" s="14">
         <v>4.24E-2</v>
@@ -30639,13 +30831,13 @@
     </row>
     <row r="190" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D190" s="14">
         <v>4.02E-2</v>
@@ -30674,13 +30866,13 @@
     </row>
     <row r="191" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D191" s="14">
         <v>3.4099999999999998E-2</v>
@@ -30709,13 +30901,13 @@
     </row>
     <row r="192" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D192" s="14">
         <v>4.5900000000000003E-2</v>
@@ -30744,13 +30936,13 @@
     </row>
     <row r="193" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D193" s="14">
         <v>3.9899999999999998E-2</v>
@@ -30779,13 +30971,13 @@
     </row>
     <row r="194" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B194" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C194" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D194" s="14">
         <v>2.8400000000000002E-2</v>
@@ -30814,13 +31006,13 @@
     </row>
     <row r="195" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B195" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C195" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C195" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D195" s="14">
         <v>2.5600000000000001E-2</v>
@@ -30849,13 +31041,13 @@
     </row>
     <row r="196" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B196" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C196" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C196" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D196" s="14">
         <v>1.6299999999999999E-2</v>
@@ -30884,13 +31076,13 @@
     </row>
     <row r="197" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B197" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C197" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D197" s="14">
         <v>1.6199999999999999E-2</v>
@@ -30919,13 +31111,13 @@
     </row>
     <row r="198" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B198" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C198" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C198" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D198" s="14">
         <v>1.4800000000000001E-2</v>
@@ -30954,13 +31146,13 @@
     </row>
     <row r="199" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B199" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C199" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C199" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D199" s="14">
         <v>1.5299999999999999E-2</v>
@@ -30989,13 +31181,13 @@
     </row>
     <row r="200" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D200" s="14">
         <v>2.9399999999999999E-2</v>
@@ -31024,13 +31216,13 @@
     </row>
     <row r="201" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D201" s="14">
         <v>5.33E-2</v>
@@ -31059,13 +31251,13 @@
     </row>
     <row r="202" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D202" s="14">
         <v>5.11E-2</v>
@@ -31094,13 +31286,13 @@
     </row>
     <row r="203" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D203" s="14">
         <v>4.6800000000000001E-2</v>
@@ -31129,13 +31321,13 @@
     </row>
     <row r="204" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D204" s="14">
         <v>4.5499999999999999E-2</v>
@@ -31164,13 +31356,13 @@
     </row>
     <row r="205" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D205" s="14">
         <v>0.05</v>
@@ -31199,13 +31391,13 @@
     </row>
     <row r="206" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D206" s="14">
         <v>7.3800000000000004E-2</v>
@@ -31234,13 +31426,13 @@
     </row>
     <row r="207" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D207" s="14">
         <v>8.3500000000000005E-2</v>
@@ -31269,13 +31461,13 @@
     </row>
     <row r="208" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D208" s="14">
         <v>8.4400000000000003E-2</v>
@@ -31304,13 +31496,13 @@
     </row>
     <row r="209" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D209" s="14">
         <v>7.4099999999999999E-2</v>
@@ -31339,13 +31531,13 @@
     </row>
     <row r="210" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D210" s="14">
         <v>7.1900000000000006E-2</v>
@@ -31374,13 +31566,13 @@
     </row>
     <row r="211" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D211" s="14">
         <v>2.9100000000000001E-2</v>
@@ -31409,13 +31601,13 @@
     </row>
     <row r="212" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D212" s="14">
         <v>6.4299999999999996E-2</v>
@@ -31444,13 +31636,13 @@
     </row>
     <row r="213" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B213" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D213" s="14">
         <v>9.3799999999999994E-2</v>
@@ -31479,13 +31671,13 @@
     </row>
     <row r="214" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D214" s="14">
         <v>4.9700000000000001E-2</v>
@@ -31514,13 +31706,13 @@
     </row>
     <row r="215" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D215" s="14">
         <v>4.0800000000000003E-2</v>
@@ -31549,13 +31741,13 @@
     </row>
     <row r="216" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D216" s="14">
         <v>5.28E-2</v>
@@ -31584,13 +31776,13 @@
     </row>
     <row r="217" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D217" s="14">
         <v>5.9400000000000001E-2</v>
@@ -31619,13 +31811,13 @@
     </row>
     <row r="218" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D218" s="14">
         <v>6.1400000000000003E-2</v>
@@ -31654,13 +31846,13 @@
     </row>
     <row r="219" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D219" s="14">
         <v>0.1143</v>
@@ -31689,13 +31881,13 @@
     </row>
     <row r="220" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D220" s="14">
         <v>0.1076</v>
@@ -31724,13 +31916,13 @@
     </row>
     <row r="221" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D221" s="14">
         <v>0.11749999999999999</v>
@@ -31759,13 +31951,13 @@
     </row>
     <row r="222" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D222" s="14">
         <v>9.8299999999999998E-2</v>
@@ -31794,13 +31986,13 @@
     </row>
     <row r="223" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B223" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D223" s="14">
         <v>0.1103</v>
@@ -31829,13 +32021,13 @@
     </row>
     <row r="224" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D224" s="14">
         <v>4.58E-2</v>
@@ -31864,13 +32056,13 @@
     </row>
     <row r="225" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D225" s="14">
         <v>7.6200000000000004E-2</v>
@@ -31899,13 +32091,13 @@
     </row>
     <row r="226" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D226" s="14">
         <v>7.1800000000000003E-2</v>
@@ -31934,13 +32126,13 @@
     </row>
     <row r="227" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D227" s="14">
         <v>6.6799999999999998E-2</v>
@@ -31969,13 +32161,13 @@
     </row>
     <row r="228" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B228" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D228" s="14">
         <v>6.2300000000000001E-2</v>
@@ -32004,13 +32196,13 @@
     </row>
     <row r="229" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D229" s="14">
         <v>6.3299999999999995E-2</v>
@@ -32039,13 +32231,13 @@
     </row>
     <row r="230" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D230" s="14">
         <v>6.6299999999999998E-2</v>
@@ -32074,13 +32266,13 @@
     </row>
     <row r="231" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D231" s="14">
         <v>6.6600000000000006E-2</v>
@@ -32109,13 +32301,13 @@
     </row>
     <row r="232" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D232" s="14">
         <v>7.5800000000000006E-2</v>
@@ -32144,13 +32336,13 @@
     </row>
     <row r="233" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D233" s="14">
         <v>8.7999999999999995E-2</v>
@@ -32179,13 +32371,13 @@
     </row>
     <row r="234" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D234" s="14">
         <v>6.08E-2</v>
@@ -32214,13 +32406,13 @@
     </row>
     <row r="235" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D235" s="14">
         <v>6.3299999999999995E-2</v>
@@ -32249,13 +32441,13 @@
     </row>
     <row r="236" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D236" s="14">
         <v>6.0400000000000002E-2</v>
@@ -32284,13 +32476,13 @@
     </row>
     <row r="237" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D237" s="14">
         <v>5.2900000000000003E-2</v>
@@ -32319,13 +32511,13 @@
     </row>
     <row r="238" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D238" s="14">
         <v>7.8200000000000006E-2</v>
@@ -32354,13 +32546,13 @@
     </row>
     <row r="239" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D239" s="14">
         <v>8.7800000000000003E-2</v>
@@ -32389,13 +32581,13 @@
     </row>
     <row r="240" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D240" s="14">
         <v>6.7199999999999996E-2</v>
@@ -32424,13 +32616,13 @@
     </row>
     <row r="241" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D241" s="14">
         <v>6.5199999999999994E-2</v>
@@ -32459,13 +32651,13 @@
     </row>
     <row r="242" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B242" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C242" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C242" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D242" s="14">
         <v>3.5400000000000001E-2</v>
@@ -32494,13 +32686,13 @@
     </row>
     <row r="243" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B243" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C243" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C243" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D243" s="14">
         <v>2.2100000000000002E-2</v>
@@ -32529,13 +32721,13 @@
     </row>
     <row r="244" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B244" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C244" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D244" s="14">
         <v>1.6E-2</v>
@@ -32564,13 +32756,13 @@
     </row>
     <row r="245" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B245" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C245" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D245" s="14">
         <v>1.41E-2</v>
@@ -32599,13 +32791,13 @@
     </row>
     <row r="246" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B246" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C246" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C246" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D246" s="14">
         <v>1.78E-2</v>
@@ -32634,13 +32826,13 @@
     </row>
     <row r="247" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B247" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C247" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D247" s="14">
         <v>2.2100000000000002E-2</v>
@@ -32669,13 +32861,13 @@
     </row>
     <row r="248" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D248" s="14">
         <v>9.7299999999999998E-2</v>
@@ -32704,13 +32896,13 @@
     </row>
     <row r="249" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D249" s="14">
         <v>6.2600000000000003E-2</v>
@@ -32739,13 +32931,13 @@
     </row>
     <row r="250" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D250" s="14">
         <v>4.6899999999999997E-2</v>
@@ -32774,13 +32966,13 @@
     </row>
     <row r="251" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D251" s="14">
         <v>6.3799999999999996E-2</v>
@@ -32809,13 +33001,13 @@
     </row>
     <row r="252" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D252" s="14">
         <v>8.14E-2</v>
@@ -32844,13 +33036,13 @@
     </row>
     <row r="253" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D253" s="14">
         <v>6.7000000000000004E-2</v>
@@ -32879,13 +33071,13 @@
     </row>
     <row r="254" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D254" s="14">
         <v>8.72E-2</v>
@@ -32914,13 +33106,13 @@
     </row>
     <row r="255" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D255" s="14">
         <v>8.3500000000000005E-2</v>
@@ -32949,13 +33141,13 @@
     </row>
     <row r="256" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D256" s="14">
         <v>8.1799999999999998E-2</v>
@@ -32984,13 +33176,13 @@
     </row>
     <row r="257" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D257" s="14">
         <v>6.3799999999999996E-2</v>
@@ -33019,13 +33211,13 @@
     </row>
     <row r="258" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D258" s="14">
         <v>4.3799999999999999E-2</v>
@@ -33054,13 +33246,13 @@
     </row>
     <row r="259" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D259" s="14">
         <v>6.7500000000000004E-2</v>
@@ -33089,13 +33281,13 @@
     </row>
     <row r="260" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B260" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D260" s="14">
         <v>5.5399999999999998E-2</v>
@@ -33124,13 +33316,13 @@
     </row>
     <row r="261" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D261" s="14">
         <v>3.7999999999999999E-2</v>
@@ -33159,13 +33351,13 @@
     </row>
     <row r="262" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D262" s="14">
         <v>3.7100000000000001E-2</v>
@@ -33194,13 +33386,13 @@
     </row>
     <row r="263" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D263" s="14">
         <v>4.0099999999999997E-2</v>
@@ -33229,13 +33421,13 @@
     </row>
     <row r="264" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D264" s="14">
         <v>3.7100000000000001E-2</v>
@@ -33264,13 +33456,13 @@
     </row>
     <row r="265" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D265" s="14">
         <v>6.2799999999999995E-2</v>
@@ -33299,13 +33491,13 @@
     </row>
     <row r="266" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D266" s="14">
         <v>6.5500000000000003E-2</v>
@@ -33334,13 +33526,13 @@
     </row>
     <row r="267" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D267" s="14">
         <v>6.6500000000000004E-2</v>
@@ -33369,13 +33561,13 @@
     </row>
     <row r="268" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D268" s="14">
         <v>7.51E-2</v>
@@ -33404,13 +33596,13 @@
     </row>
     <row r="269" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" s="14">
         <v>0.1085</v>
@@ -33439,13 +33631,13 @@
     </row>
     <row r="270" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D270" s="14">
         <v>0.1162</v>
@@ -33474,13 +33666,13 @@
     </row>
     <row r="271" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D271" s="14">
         <v>9.2399999999999996E-2</v>
@@ -33509,13 +33701,13 @@
     </row>
     <row r="272" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D272" s="14">
         <v>0.1007</v>
@@ -33544,13 +33736,13 @@
     </row>
     <row r="273" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D273" s="14">
         <v>0.1148</v>
@@ -33579,13 +33771,13 @@
     </row>
     <row r="274" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D274" s="14">
         <v>7.1999999999999995E-2</v>
@@ -33614,13 +33806,13 @@
     </row>
     <row r="275" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D275" s="14">
         <v>9.7199999999999995E-2</v>
@@ -33649,13 +33841,13 @@
     </row>
     <row r="276" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D276" s="14">
         <v>7.2999999999999995E-2</v>
@@ -33684,13 +33876,13 @@
     </row>
     <row r="277" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D277" s="14">
         <v>0.14549999999999999</v>
@@ -33719,13 +33911,13 @@
     </row>
     <row r="278" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D278" s="14">
         <v>8.5500000000000007E-2</v>
@@ -33754,13 +33946,13 @@
     </row>
     <row r="279" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D279" s="14">
         <v>9.6100000000000005E-2</v>
@@ -33789,13 +33981,13 @@
     </row>
     <row r="280" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D280" s="14">
         <v>9.3399999999999997E-2</v>
@@ -33824,13 +34016,13 @@
     </row>
     <row r="281" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D281" s="14">
         <v>0.1172</v>
@@ -33859,13 +34051,13 @@
     </row>
     <row r="282" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D282" s="14">
         <v>9.7000000000000003E-2</v>
@@ -33894,13 +34086,13 @@
     </row>
     <row r="283" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D283" s="14">
         <v>0.1115</v>
@@ -33929,13 +34121,13 @@
     </row>
     <row r="284" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D284" s="14">
         <v>7.8899999999999998E-2</v>
@@ -33964,13 +34156,13 @@
     </row>
     <row r="285" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D285" s="14">
         <v>0.1168</v>
@@ -33999,13 +34191,13 @@
     </row>
     <row r="286" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D286" s="14">
         <v>6.2E-2</v>
@@ -34034,13 +34226,13 @@
     </row>
     <row r="287" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D287" s="14">
         <v>5.2900000000000003E-2</v>
@@ -34069,13 +34261,13 @@
     </row>
     <row r="288" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D288" s="14">
         <v>6.6500000000000004E-2</v>
@@ -34104,13 +34296,13 @@
     </row>
     <row r="289" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D289" s="14">
         <v>7.0099999999999996E-2</v>
@@ -34139,13 +34331,13 @@
     </row>
     <row r="290" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B290" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C290" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C290" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D290" s="14">
         <v>3.1800000000000002E-2</v>
@@ -34174,13 +34366,13 @@
     </row>
     <row r="291" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B291" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C291" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C291" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D291" s="14">
         <v>9.3799999999999994E-2</v>
@@ -34209,13 +34401,13 @@
     </row>
     <row r="292" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B292" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C292" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C292" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D292" s="14">
         <v>0.1148</v>
@@ -34244,13 +34436,13 @@
     </row>
     <row r="293" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B293" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C293" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C293" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D293" s="14">
         <v>6.2799999999999995E-2</v>
@@ -34279,13 +34471,13 @@
     </row>
     <row r="294" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B294" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C294" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C294" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D294" s="14">
         <v>7.1800000000000003E-2</v>
@@ -34314,13 +34506,13 @@
     </row>
     <row r="295" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B295" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C295" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C295" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D295" s="14">
         <v>1.6299999999999999E-2</v>
@@ -34349,13 +34541,13 @@
     </row>
     <row r="296" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D296" s="14">
         <v>5.9799999999999999E-2</v>
@@ -34384,13 +34576,13 @@
     </row>
     <row r="297" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D297" s="14">
         <v>3.04E-2</v>
@@ -34419,13 +34611,13 @@
     </row>
     <row r="298" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D298" s="14">
         <v>3.0099999999999998E-2</v>
@@ -34454,13 +34646,13 @@
     </row>
     <row r="299" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D299" s="14">
         <v>1.4800000000000001E-2</v>
@@ -34489,13 +34681,13 @@
     </row>
     <row r="300" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D300" s="14">
         <v>1.7600000000000001E-2</v>
@@ -34524,13 +34716,13 @@
     </row>
     <row r="301" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D301" s="14">
         <v>3.0800000000000001E-2</v>
@@ -34559,13 +34751,13 @@
     </row>
     <row r="302" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B302" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D302" s="14">
         <v>7.6799999999999993E-2</v>
@@ -34594,13 +34786,13 @@
     </row>
     <row r="303" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D303" s="14">
         <v>8.2799999999999999E-2</v>
@@ -34629,13 +34821,13 @@
     </row>
     <row r="304" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D304" s="14">
         <v>7.4800000000000005E-2</v>
@@ -34664,13 +34856,13 @@
     </row>
     <row r="305" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D305" s="14">
         <v>3.61E-2</v>
@@ -34699,13 +34891,13 @@
     </row>
     <row r="306" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D306" s="14">
         <v>2.41E-2</v>
@@ -34734,13 +34926,13 @@
     </row>
     <row r="307" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D307" s="14">
         <v>3.32E-2</v>
@@ -34769,13 +34961,13 @@
     </row>
     <row r="308" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B308" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D308" s="14">
         <v>7.3800000000000004E-2</v>
@@ -34804,13 +34996,13 @@
     </row>
     <row r="309" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B309" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D309" s="14">
         <v>5.7799999999999997E-2</v>
@@ -34839,13 +35031,13 @@
     </row>
     <row r="310" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D310" s="14">
         <v>8.5800000000000001E-2</v>
@@ -34874,13 +35066,13 @@
     </row>
     <row r="311" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D311" s="14">
         <v>5.8799999999999998E-2</v>
@@ -34909,13 +35101,13 @@
     </row>
     <row r="312" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D312" s="14">
         <v>3.5799999999999998E-2</v>
@@ -34944,13 +35136,13 @@
     </row>
     <row r="313" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D313" s="14">
         <v>4.2799999999999998E-2</v>
@@ -34979,13 +35171,13 @@
     </row>
     <row r="314" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D314" s="14">
         <v>0.1318</v>
@@ -35014,13 +35206,13 @@
     </row>
     <row r="315" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D315" s="14">
         <v>0.10780000000000001</v>
@@ -35049,13 +35241,13 @@
     </row>
     <row r="316" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D316" s="14">
         <v>5.9799999999999999E-2</v>
@@ -35084,13 +35276,13 @@
     </row>
     <row r="317" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D317" s="14">
         <v>0.12479999999999999</v>
@@ -35119,13 +35311,13 @@
     </row>
     <row r="318" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B318" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D318" s="14">
         <v>0.1898</v>
@@ -35154,13 +35346,13 @@
     </row>
     <row r="319" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B319" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D319" s="14">
         <v>0.1888</v>
@@ -35189,13 +35381,13 @@
     </row>
     <row r="320" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B320" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D320" s="14">
         <v>0.1588</v>
@@ -35224,13 +35416,13 @@
     </row>
     <row r="321" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B321" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D321" s="14">
         <v>0.1318</v>
@@ -35259,13 +35451,13 @@
     </row>
     <row r="322" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B322" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D322" s="14">
         <v>9.1800000000000007E-2</v>
@@ -35294,13 +35486,13 @@
     </row>
     <row r="323" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B323" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D323" s="14">
         <v>8.1799999999999998E-2</v>
@@ -35329,13 +35521,13 @@
     </row>
     <row r="324" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D324" s="14">
         <v>8.8800000000000004E-2</v>
@@ -35364,13 +35556,13 @@
     </row>
     <row r="325" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D325" s="14">
         <v>8.6800000000000002E-2</v>
@@ -35399,13 +35591,13 @@
     </row>
     <row r="326" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D326" s="14">
         <v>0.14779999999999999</v>
@@ -35434,13 +35626,13 @@
     </row>
     <row r="327" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D327" s="14">
         <v>0.1328</v>
@@ -35469,13 +35661,13 @@
     </row>
     <row r="328" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D328" s="14">
         <v>0.1898</v>
@@ -35504,13 +35696,13 @@
     </row>
     <row r="329" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B329" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D329" s="14">
         <v>0.14779999999999999</v>
@@ -35539,13 +35731,13 @@
     </row>
     <row r="330" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D330" s="14">
         <v>0.1658</v>
@@ -35574,13 +35766,13 @@
     </row>
     <row r="331" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B331" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D331" s="14">
         <v>0.1588</v>
@@ -35609,13 +35801,13 @@
     </row>
     <row r="332" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D332" s="14">
         <v>0.14979999999999999</v>
@@ -35644,13 +35836,13 @@
     </row>
     <row r="333" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B333" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D333" s="14">
         <v>9.0800000000000006E-2</v>
@@ -35679,13 +35871,13 @@
     </row>
     <row r="334" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D334" s="14">
         <v>0.1648</v>
@@ -35714,13 +35906,13 @@
     </row>
     <row r="335" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D335" s="14">
         <v>0.1658</v>
@@ -35749,13 +35941,13 @@
     </row>
     <row r="336" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D336" s="14">
         <v>0.12180000000000001</v>
@@ -35784,13 +35976,13 @@
     </row>
     <row r="337" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D337" s="14">
         <v>0.1338</v>
@@ -35819,13 +36011,13 @@
     </row>
     <row r="338" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B338" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C338" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C338" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D338" s="14">
         <v>6.6799999999999998E-2</v>
@@ -35854,13 +36046,13 @@
     </row>
     <row r="339" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B339" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C339" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C339" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D339" s="14">
         <v>4.0800000000000003E-2</v>
@@ -35889,13 +36081,13 @@
     </row>
     <row r="340" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B340" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C340" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C340" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D340" s="14">
         <v>8.9800000000000005E-2</v>
@@ -35924,13 +36116,13 @@
     </row>
     <row r="341" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B341" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C341" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C341" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D341" s="14">
         <v>8.0799999999999997E-2</v>
@@ -35959,13 +36151,13 @@
     </row>
     <row r="342" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B342" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C342" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C342" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D342" s="14">
         <v>8.1799999999999998E-2</v>
@@ -35994,13 +36186,13 @@
     </row>
     <row r="343" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B343" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C343" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C343" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="D343" s="14">
         <v>6.6799999999999998E-2</v>
@@ -36029,13 +36221,13 @@
     </row>
     <row r="344" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D344" s="14">
         <v>6.6799999999999998E-2</v>
@@ -36064,13 +36256,13 @@
     </row>
     <row r="345" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D345" s="14">
         <v>4.3799999999999999E-2</v>
@@ -36099,13 +36291,13 @@
     </row>
     <row r="346" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D346" s="14">
         <v>7.6799999999999993E-2</v>
@@ -36134,13 +36326,13 @@
     </row>
     <row r="347" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D347" s="14">
         <v>5.3800000000000001E-2</v>
@@ -36169,13 +36361,13 @@
     </row>
     <row r="348" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D348" s="14">
         <v>3.4799999999999998E-2</v>
@@ -36204,13 +36396,13 @@
     </row>
     <row r="349" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D349" s="14">
         <v>3.4799999999999998E-2</v>
@@ -36239,13 +36431,13 @@
     </row>
     <row r="350" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D350" s="14">
         <v>4.6800000000000001E-2</v>
@@ -36274,13 +36466,13 @@
     </row>
     <row r="351" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D351" s="14">
         <v>4.8800000000000003E-2</v>
@@ -36309,13 +36501,13 @@
     </row>
     <row r="352" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D352" s="14">
         <v>3.8800000000000001E-2</v>
@@ -36344,13 +36536,13 @@
     </row>
     <row r="353" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D353" s="14">
         <v>7.0800000000000002E-2</v>
@@ -36379,13 +36571,13 @@
     </row>
     <row r="354" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D354" s="14">
         <v>8.48E-2</v>
@@ -36414,13 +36606,13 @@
     </row>
     <row r="355" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D355" s="14">
         <v>4.48E-2</v>
@@ -36449,13 +36641,13 @@
     </row>
     <row r="356" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D356" s="14">
         <v>3.8800000000000001E-2</v>
@@ -36484,13 +36676,13 @@
     </row>
     <row r="357" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D357" s="14">
         <v>4.6800000000000001E-2</v>
@@ -36519,13 +36711,13 @@
     </row>
     <row r="358" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D358" s="14">
         <v>7.4800000000000005E-2</v>
@@ -36554,13 +36746,13 @@
     </row>
     <row r="359" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D359" s="14">
         <v>9.2799999999999994E-2</v>
@@ -36589,13 +36781,13 @@
     </row>
     <row r="360" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D360" s="14">
         <v>3.4799999999999998E-2</v>
@@ -36624,13 +36816,13 @@
     </row>
     <row r="361" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D361" s="14">
         <v>4.3799999999999999E-2</v>
@@ -36659,13 +36851,13 @@
     </row>
     <row r="362" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D362" s="14">
         <v>0.14779999999999999</v>
@@ -36694,13 +36886,13 @@
     </row>
     <row r="363" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B363" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D363" s="14">
         <v>0.1138</v>
@@ -36729,13 +36921,13 @@
     </row>
     <row r="364" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B364" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D364" s="14">
         <v>5.9799999999999999E-2</v>
@@ -36764,13 +36956,13 @@
     </row>
     <row r="365" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D365" s="14">
         <v>8.0799999999999997E-2</v>
@@ -36799,13 +36991,13 @@
     </row>
     <row r="366" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D366" s="14">
         <v>9.7799999999999998E-2</v>
@@ -36834,13 +37026,13 @@
     </row>
     <row r="367" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D367" s="14">
         <v>0.1138</v>
@@ -36869,13 +37061,13 @@
     </row>
     <row r="368" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D368" s="14">
         <v>0.1118</v>
@@ -36904,13 +37096,13 @@
     </row>
     <row r="369" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D369" s="14">
         <v>0.1328</v>
@@ -36939,13 +37131,13 @@
     </row>
     <row r="370" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D370" s="14">
         <v>6.9800000000000001E-2</v>
@@ -36974,13 +37166,13 @@
     </row>
     <row r="371" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D371" s="14">
         <v>0.1208</v>
@@ -37009,13 +37201,13 @@
     </row>
     <row r="372" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D372" s="14">
         <v>8.7800000000000003E-2</v>
@@ -37044,13 +37236,13 @@
     </row>
     <row r="373" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D373" s="14">
         <v>0.1028</v>
@@ -37079,13 +37271,13 @@
     </row>
     <row r="374" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D374" s="14">
         <v>0.1028</v>
@@ -37114,13 +37306,13 @@
     </row>
     <row r="375" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D375" s="14">
         <v>0.1618</v>
@@ -37149,13 +37341,13 @@
     </row>
     <row r="376" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D376" s="14">
         <v>0.16880000000000001</v>
@@ -37184,13 +37376,13 @@
     </row>
     <row r="377" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D377" s="14">
         <v>0.1138</v>
@@ -37219,13 +37411,13 @@
     </row>
     <row r="378" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D378" s="14">
         <v>0.10879999999999999</v>
@@ -37254,13 +37446,13 @@
     </row>
     <row r="379" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D379" s="14">
         <v>0.14480000000000001</v>
@@ -37289,13 +37481,13 @@
     </row>
     <row r="380" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D380" s="14">
         <v>0.1198</v>
@@ -37324,13 +37516,13 @@
     </row>
     <row r="381" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D381" s="14">
         <v>0.1338</v>
@@ -37359,13 +37551,13 @@
     </row>
     <row r="382" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D382" s="14">
         <v>0.14680000000000001</v>
@@ -37394,13 +37586,13 @@
     </row>
     <row r="383" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D383" s="14">
         <v>0.15579999999999999</v>
@@ -37429,13 +37621,13 @@
     </row>
     <row r="384" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D384" s="14">
         <v>9.2799999999999994E-2</v>
@@ -37464,13 +37656,13 @@
     </row>
     <row r="385" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D385" s="14">
         <v>0.2268</v>
